--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035929930.402331</v>
+        <v>42699148.80086244</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8865.29181246253</v>
+        <v>982799.2485591061</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16884.42232117262</v>
+        <v>1832878.750783607</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24903.5528298827</v>
+        <v>2682958.25300811</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33246.54468286354</v>
+        <v>3548261.134626551</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41513.03714190498</v>
+        <v>4398340.636851053</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49779.52960094641</v>
+        <v>5248420.139075554</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58046.02205998784</v>
+        <v>6098499.641300052</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66312.51451902927</v>
+        <v>6948579.14352455</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74579.0069780707</v>
+        <v>7798658.645749048</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82845.49943711211</v>
+        <v>8648738.147973547</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>91111.99189615354</v>
+        <v>9498817.65019805</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99077.76350679196</v>
+        <v>10333673.77302862</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>107120.0345113698</v>
+        <v>11183753.27525313</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>115162.3055159476</v>
+        <v>12033832.77747763</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>123204.5765205254</v>
+        <v>12883912.27970214</v>
       </c>
     </row>
   </sheetData>
